--- a/UM/HW7/labnotes.xlsx
+++ b/UM/HW7/labnotes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="16">
   <si>
     <t xml:space="preserve">Benchmark</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t xml:space="preserve">Eliminate function call to bitpack_getu. Removes assertions, and creates static mask.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seq_get , Uarray_at</t>
   </si>
 </sst>
 </file>
@@ -202,8 +205,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H33" activeCellId="0" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -513,7 +516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
         <v>7</v>
       </c>
@@ -525,8 +528,11 @@
         <f aca="false">B14/B11</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
         <v>10</v>
       </c>
@@ -538,8 +544,11 @@
         <f aca="false">B15/B12</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
         <v>11</v>
       </c>
@@ -550,6 +559,9 @@
       <c r="E16" s="4" t="n">
         <f aca="false">B16/B13</f>
         <v>0</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/UM/HW7/labnotes.xlsx
+++ b/UM/HW7/labnotes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7040" yWindow="980" windowWidth="20240" windowHeight="12680" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7000" yWindow="1900" windowWidth="20240" windowHeight="12680" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>Benchmark</t>
   </si>
@@ -68,10 +68,22 @@
     <t>Compiles with optimiazation flag -O2 turned on and linked against -lcii-O2</t>
   </si>
   <si>
-    <t>Eliminate function call to bitpack_getu. Removes assertions, and creates static mask.</t>
-  </si>
-  <si>
     <t>Seq_get , Uarray_at</t>
+  </si>
+  <si>
+    <t>Callgrind</t>
+  </si>
+  <si>
+    <t>callgrind.out.27941</t>
+  </si>
+  <si>
+    <t>segmented_load, segmented_store</t>
+  </si>
+  <si>
+    <t>Eliminate function call to bitpack_getu. Created smaller verstion of bitpack_getus using local variables for masks and shift values. Removes assertions, and creates static mask.</t>
+  </si>
+  <si>
+    <t>Changed program_counter to directly point to next index by incrementing by +1, rather than extracting array from sequence</t>
   </si>
 </sst>
 </file>
@@ -81,7 +93,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -104,13 +116,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -131,7 +155,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -140,6 +164,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -396,6 +435,43 @@
       </right>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -404,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -424,176 +500,198 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -913,7 +1011,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
@@ -925,7 +1023,8 @@
     <col min="5" max="5" width="14.6640625" style="5" customWidth="1"/>
     <col min="6" max="6" width="37.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="1025" width="21" style="2"/>
+    <col min="8" max="8" width="27" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="1025" width="21" style="2"/>
     <col min="1026" max="16384" width="21" style="3"/>
   </cols>
   <sheetData>
@@ -951,6 +1050,9 @@
       <c r="G1" s="63" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="64" t="s">
+        <v>15</v>
+      </c>
       <c r="AMJ1" s="2"/>
     </row>
     <row r="2" spans="1:1024" x14ac:dyDescent="0.15">
@@ -975,6 +1077,7 @@
       <c r="G2" s="42" t="s">
         <v>9</v>
       </c>
+      <c r="H2" s="65"/>
     </row>
     <row r="3" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A3" s="19" t="s">
@@ -992,6 +1095,7 @@
       </c>
       <c r="F3" s="41"/>
       <c r="G3" s="43"/>
+      <c r="H3" s="66"/>
     </row>
     <row r="4" spans="1:1024" ht="17" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
@@ -1011,6 +1115,7 @@
       </c>
       <c r="F4" s="57"/>
       <c r="G4" s="44"/>
+      <c r="H4" s="66"/>
     </row>
     <row r="5" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A5" s="37" t="s">
@@ -1034,6 +1139,7 @@
       <c r="G5" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="H5" s="66"/>
     </row>
     <row r="6" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
@@ -1053,6 +1159,7 @@
       </c>
       <c r="F6" s="50"/>
       <c r="G6" s="51"/>
+      <c r="H6" s="66"/>
     </row>
     <row r="7" spans="1:1024" ht="17" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
@@ -1074,6 +1181,7 @@
       </c>
       <c r="F7" s="52"/>
       <c r="G7" s="53"/>
+      <c r="H7" s="66"/>
     </row>
     <row r="8" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A8" s="45" t="s">
@@ -1097,6 +1205,7 @@
       <c r="G8" s="49" t="s">
         <v>9</v>
       </c>
+      <c r="H8" s="66"/>
     </row>
     <row r="9" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A9" s="19" t="s">
@@ -1116,6 +1225,7 @@
       </c>
       <c r="F9" s="41"/>
       <c r="G9" s="43"/>
+      <c r="H9" s="66"/>
     </row>
     <row r="10" spans="1:1024" ht="17" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
@@ -1137,8 +1247,9 @@
       </c>
       <c r="F10" s="57"/>
       <c r="G10" s="44"/>
-    </row>
-    <row r="11" spans="1:1024" x14ac:dyDescent="0.15">
+      <c r="H10" s="66"/>
+    </row>
+    <row r="11" spans="1:1024" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="37" t="s">
         <v>7</v>
       </c>
@@ -1155,13 +1266,14 @@
         <v>0.56497840596780535</v>
       </c>
       <c r="F11" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1024" x14ac:dyDescent="0.15">
+      <c r="H11" s="66"/>
+    </row>
+    <row r="12" spans="1:1024" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
@@ -1179,8 +1291,9 @@
       </c>
       <c r="F12" s="50"/>
       <c r="G12" s="51"/>
-    </row>
-    <row r="13" spans="1:1024" ht="17" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H12" s="66"/>
+    </row>
+    <row r="13" spans="1:1024" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
@@ -1200,8 +1313,9 @@
       </c>
       <c r="F13" s="52"/>
       <c r="G13" s="53"/>
-    </row>
-    <row r="14" spans="1:1024" x14ac:dyDescent="0.15">
+      <c r="H13" s="66"/>
+    </row>
+    <row r="14" spans="1:1024" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="45" t="s">
         <v>7</v>
       </c>
@@ -1215,12 +1329,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F14" s="29"/>
+      <c r="F14" s="69" t="s">
+        <v>19</v>
+      </c>
       <c r="G14" s="49" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1024" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+      <c r="H14" s="66"/>
+    </row>
+    <row r="15" spans="1:1024" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19" t="s">
         <v>10</v>
       </c>
@@ -1234,10 +1351,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F15" s="30"/>
+      <c r="F15" s="70"/>
       <c r="G15" s="43"/>
-    </row>
-    <row r="16" spans="1:1024" ht="17" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H15" s="66"/>
+    </row>
+    <row r="16" spans="1:1024" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>11</v>
       </c>
@@ -1251,10 +1369,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F16" s="31"/>
+      <c r="F16" s="71"/>
       <c r="G16" s="44"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H16" s="68" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
@@ -1270,8 +1391,9 @@
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="32"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H17" s="66"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>10</v>
       </c>
@@ -1287,8 +1409,9 @@
       </c>
       <c r="F18" s="27"/>
       <c r="G18" s="32"/>
-    </row>
-    <row r="19" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H18" s="66"/>
+    </row>
+    <row r="19" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>11</v>
       </c>
@@ -1304,8 +1427,9 @@
       </c>
       <c r="F19" s="28"/>
       <c r="G19" s="33"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H19" s="66"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="15" t="s">
         <v>7</v>
       </c>
@@ -1321,8 +1445,9 @@
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="34"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H20" s="66"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="19" t="s">
         <v>10</v>
       </c>
@@ -1338,8 +1463,9 @@
       </c>
       <c r="F21" s="30"/>
       <c r="G21" s="35"/>
-    </row>
-    <row r="22" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H21" s="66"/>
+    </row>
+    <row r="22" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
         <v>11</v>
       </c>
@@ -1355,6 +1481,7 @@
       </c>
       <c r="F22" s="31"/>
       <c r="G22" s="36"/>
+      <c r="H22" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/UM/HW7/labnotes.xlsx
+++ b/UM/HW7/labnotes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7000" yWindow="1900" windowWidth="20240" windowHeight="12680" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="2100" windowWidth="20240" windowHeight="12680" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
   <si>
     <t>Benchmark</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>Instructions</t>
   </si>
   <si>
@@ -56,18 +53,9 @@
     <t>Bitpack_getu</t>
   </si>
   <si>
-    <t>Med</t>
-  </si>
-  <si>
     <t>Small</t>
   </si>
   <si>
-    <t>Compiles with optimiazation flag -O1 turned on and linked against -lcii-O1</t>
-  </si>
-  <si>
-    <t>Compiles with optimiazation flag -O2 turned on and linked against -lcii-O2</t>
-  </si>
-  <si>
     <t>Seq_get , Uarray_at</t>
   </si>
   <si>
@@ -80,10 +68,34 @@
     <t>segmented_load, segmented_store</t>
   </si>
   <si>
-    <t>Eliminate function call to bitpack_getu. Created smaller verstion of bitpack_getus using local variables for masks and shift values. Removes assertions, and creates static mask.</t>
-  </si>
-  <si>
-    <t>Changed program_counter to directly point to next index by incrementing by +1, rather than extracting array from sequence</t>
+    <t>Compiled with optimization flag -O1 and linked against -lcii-O1</t>
+  </si>
+  <si>
+    <t>Compiled with optimization flag -O2 and linked against -lcii-O2</t>
+  </si>
+  <si>
+    <t>Changed the program_counter to point to the next index directly.  This was achieved by incrementing the program_counter by +1, rather than extracting the array from the sequence at each subsequent word.</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Eliminated function call to bitpack_getu. Created smaller verstion of bitpack_getus using local variables for mask and shift values. This removes assertions found in bitpack, and allows the use of static mask and shift values.</t>
+  </si>
+  <si>
+    <t>Time (s)</t>
+  </si>
+  <si>
+    <t>Big 
+(sandmark.umz)</t>
+  </si>
+  <si>
+    <t>Medium 
+(partial advent.umz)</t>
+  </si>
+  <si>
+    <t>Small 
+(midmark.um)</t>
   </si>
 </sst>
 </file>
@@ -111,19 +123,20 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,8 +167,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -260,6 +279,120 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -268,10 +401,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -284,9 +417,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -294,12 +425,30 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -312,10 +461,8 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -327,54 +474,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -387,91 +487,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -480,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -500,70 +518,121 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -572,126 +641,93 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1007,20 +1043,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK22"/>
+  <dimension ref="A1:AMK34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" style="2" bestFit="1" customWidth="1"/>
@@ -1029,35 +1065,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" s="1" customFormat="1" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="60" t="s">
+      <c r="A1" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="D1" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="E1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="F1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="G1" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="64" t="s">
-        <v>15</v>
+      <c r="H1" s="77" t="s">
+        <v>11</v>
       </c>
       <c r="AMJ1" s="2"/>
     </row>
-    <row r="2" spans="1:1024" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1024" ht="32" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B2" s="16">
         <v>60.46</v>
@@ -1071,17 +1107,17 @@
       <c r="E2" s="18">
         <v>1</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="65"/>
-    </row>
-    <row r="3" spans="1:1024" x14ac:dyDescent="0.15">
+      <c r="H2" s="41"/>
+    </row>
+    <row r="3" spans="1:1024" ht="32" x14ac:dyDescent="0.15">
       <c r="A3" s="19" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B3" s="20">
         <v>20.51</v>
@@ -1093,13 +1129,13 @@
       <c r="E3" s="22">
         <v>1</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="66"/>
-    </row>
-    <row r="4" spans="1:1024" ht="17" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="53"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="42"/>
+    </row>
+    <row r="4" spans="1:1024" ht="33" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B4" s="24">
         <v>2.61</v>
@@ -1113,37 +1149,37 @@
       <c r="E4" s="26">
         <v>1</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="66"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="42"/>
     </row>
     <row r="5" spans="1:1024" x14ac:dyDescent="0.15">
-      <c r="A5" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="38">
+      <c r="A5" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="28">
         <v>55.4</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40">
+      <c r="C5" s="29"/>
+      <c r="D5" s="30">
         <f t="shared" ref="D5:D22" si="0">B5/$B$2</f>
         <v>0.91630830301025468</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="30">
         <f t="shared" ref="E5:E22" si="1">B5/B2</f>
         <v>0.91630830301025468</v>
       </c>
-      <c r="F5" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="66"/>
+      <c r="F5" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="42"/>
     </row>
     <row r="6" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B6" s="8">
         <v>18.739999999999998</v>
@@ -1157,13 +1193,13 @@
         <f t="shared" si="1"/>
         <v>0.9137006338371525</v>
       </c>
-      <c r="F6" s="50"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="66"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="42"/>
     </row>
     <row r="7" spans="1:1024" ht="17" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="12">
         <v>2.13</v>
@@ -1179,37 +1215,37 @@
         <f t="shared" si="1"/>
         <v>0.81609195402298851</v>
       </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="66"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="42"/>
     </row>
     <row r="8" spans="1:1024" x14ac:dyDescent="0.15">
-      <c r="A8" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="46">
+      <c r="A8" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="33">
         <v>50.94</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="48">
+      <c r="C8" s="34"/>
+      <c r="D8" s="35">
         <f t="shared" si="0"/>
         <v>0.84254052265960966</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="35">
         <f t="shared" si="1"/>
         <v>0.91949458483754509</v>
       </c>
       <c r="F8" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="66"/>
+        <v>15</v>
+      </c>
+      <c r="G8" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="42"/>
     </row>
     <row r="9" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A9" s="19" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B9" s="20">
         <v>18.16</v>
@@ -1223,13 +1259,13 @@
         <f t="shared" si="1"/>
         <v>0.96905016008537892</v>
       </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="66"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="42"/>
     </row>
     <row r="10" spans="1:1024" ht="17" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="24">
         <v>2.02</v>
@@ -1245,37 +1281,37 @@
         <f t="shared" si="1"/>
         <v>0.94835680751173712</v>
       </c>
-      <c r="F10" s="57"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="66"/>
-    </row>
-    <row r="11" spans="1:1024" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="38">
+      <c r="F10" s="54"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="42"/>
+    </row>
+    <row r="11" spans="1:1024" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="28">
         <v>28.78</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40">
+      <c r="C11" s="29"/>
+      <c r="D11" s="30">
         <f t="shared" si="0"/>
         <v>0.4760172014555078</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="30">
         <f t="shared" si="1"/>
         <v>0.56497840596780535</v>
       </c>
-      <c r="F11" s="54" t="s">
+      <c r="F11" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="66"/>
-    </row>
-    <row r="12" spans="1:1024" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G11" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="42"/>
+    </row>
+    <row r="12" spans="1:1024" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B12" s="8">
         <v>10.08</v>
@@ -1289,13 +1325,13 @@
         <f t="shared" si="1"/>
         <v>0.55506607929515417</v>
       </c>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="66"/>
-    </row>
-    <row r="13" spans="1:1024" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="56"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="42"/>
+    </row>
+    <row r="13" spans="1:1024" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" s="12">
         <v>1.1599999999999999</v>
@@ -1311,35 +1347,35 @@
         <f t="shared" si="1"/>
         <v>0.57425742574257421</v>
       </c>
-      <c r="F13" s="52"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="66"/>
-    </row>
-    <row r="14" spans="1:1024" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48">
+      <c r="F13" s="57"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="42"/>
+    </row>
+    <row r="14" spans="1:1024" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F14" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="49" t="s">
+      <c r="F14" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="42"/>
+    </row>
+    <row r="15" spans="1:1024" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="19" t="s">
         <v>17</v>
-      </c>
-      <c r="H14" s="66"/>
-    </row>
-    <row r="15" spans="1:1024" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="19" t="s">
-        <v>10</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="21"/>
@@ -1351,13 +1387,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F15" s="70"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="66"/>
-    </row>
-    <row r="16" spans="1:1024" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="50"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="42"/>
+    </row>
+    <row r="16" spans="1:1024" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="25"/>
@@ -1369,33 +1405,33 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F16" s="71"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="68" t="s">
-        <v>16</v>
+      <c r="F16" s="51"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="71" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="40">
+      <c r="A17" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E17" s="40" t="e">
+      <c r="E17" s="30" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="66"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="42"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
@@ -1407,13 +1443,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="66"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="42"/>
     </row>
     <row r="19" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="13"/>
@@ -1425,13 +1461,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="66"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="42"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="17"/>
@@ -1443,13 +1479,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="66"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="42"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="19" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="21"/>
@@ -1461,13 +1497,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="66"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="42"/>
     </row>
     <row r="22" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="25"/>
@@ -1479,18 +1515,236 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="31"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="67"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="42"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="38"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30">
+        <f t="shared" ref="D23:D34" si="2">B23/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="30" t="e">
+        <f t="shared" ref="E23:E34" si="3">B23/B20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F23" s="44"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="42"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="36"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F24" s="44"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="42"/>
+    </row>
+    <row r="25" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="37"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="14" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="45"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="42"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="39"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="18" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F26" s="46"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="42"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="22" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F27" s="47"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="42"/>
+    </row>
+    <row r="28" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="40"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="26" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F28" s="48"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="42"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="38"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="30" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F29" s="44"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="42"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="36"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F30" s="44"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="42"/>
+    </row>
+    <row r="31" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="37"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="14" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="45"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="42"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="39"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="18" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F32" s="46"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="42"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="31"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="22" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F33" s="47"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="42"/>
+    </row>
+    <row r="34" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="40"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="26" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F34" s="48"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="F14:F16"/>
+  <mergeCells count="22">
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="G29:G31"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="F8:F10"/>
@@ -1499,6 +1753,12 @@
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="G8:G10"/>
     <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="F14:F16"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
